--- a/data/output/Pedido_Semana_07_13022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_fitos.xlsx
@@ -678,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>3501100023</t>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
       </c>
       <c r="O3" s="7" t="inlineStr"/>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>3302170002</t>
@@ -962,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>3701020004</t>
@@ -1127,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>39.95</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>23.97</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>20.15</v>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>3302210008</t>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16.88</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>10.13</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1624,22 +1624,22 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>3502010008</t>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>57.15</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>34.29</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" hidden="1">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>3701020003</t>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>72.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>43.61</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>3901010003</t>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>27.35</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>3403010002</t>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>62.3</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>37.38</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2191,10 +2191,10 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2290,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>3302030001</t>
@@ -2339,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>3302200007</t>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>12.96</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="inlineStr">
         <is>
@@ -2434,25 +2434,25 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>3401040001</t>
@@ -2504,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2515,25 +2515,25 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>3402030001</t>
@@ -2585,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2596,22 +2596,22 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" hidden="1">
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>3502010013</t>
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>24.66</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2758,25 +2758,25 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>3902010002</t>
@@ -2828,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>31.35</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>18.81</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>49.95</v>
+        <v>16.65</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>29.97</v>
+        <v>9.99</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3001,22 +3001,22 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>44.75</v>
+        <v>22.38</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>26.85</v>
+        <v>13.43</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>3501100020</t>
@@ -3149,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>19.75</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>11.85</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>3501120000</t>
@@ -3230,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>51.53</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>30.92</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>1054.15€</t>
+          <t>506.59€</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
